--- a/Data/Seasons_Episodes/output/logistic_reg_results.xlsx
+++ b/Data/Seasons_Episodes/output/logistic_reg_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquelineskunda/Documents/GitHub/696/Milestone2/Data/Seasons_Episodes/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1BBC4B-EF0C-2E40-ACA4-9C0C2433A336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC93B2-8147-734F-A62F-CB7ABB557DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1740" windowWidth="28040" windowHeight="16500" xr2:uid="{6405171C-70B8-4540-B98E-64EBC0836A3F}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{6405171C-70B8-4540-B98E-64EBC0836A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t xml:space="preserve">All Characters with featues </t>
   </si>
@@ -90,6 +90,33 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>N Jobs</t>
+  </si>
+  <si>
+    <t>Class Weight</t>
+  </si>
+  <si>
+    <t>balanced</t>
+  </si>
+  <si>
+    <t>Precison</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid Search done on C': [0.01,0.1,0.5,1.0,5,10], 'penalty':['l1','l2], 'solver':['liblinear','lbfgs','saga'], with score = accuracy and njobs = 50 and max iter = 250 and cv = 2 or cv = 5 depending on character occurences dataset fed to model </t>
   </si>
 </sst>
 </file>
@@ -99,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +156,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -144,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -287,18 +322,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -311,9 +431,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,14 +443,50 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,204 +802,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D58239E-72FE-BC46-A040-857978883CF3}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="58.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="13" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="M1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>500</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8">
         <v>0.45100000000000001</v>
       </c>
-      <c r="G2" s="13">
+      <c r="I2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M2" s="10">
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>500</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8">
         <v>0.71099999999999997</v>
       </c>
-      <c r="G3" s="13">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="8">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="M3" s="10">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>0.1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1000</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="10">
         <v>0.70040000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>0.1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>500</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G5" s="13">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="8">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="M5" s="10">
         <v>0.70040000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>0.1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>500</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8">
         <v>0.59699999999999998</v>
       </c>
-      <c r="G6" s="13">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="8">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="M6" s="10">
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1000</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8">
         <v>0.93200000000000005</v>
       </c>
-      <c r="G7" s="13">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="8">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="M7" s="10">
         <v>0.754</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>500</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.92</v>
       </c>
-      <c r="G8" s="14">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="M8" s="11">
         <v>0.67100000000000004</v>
       </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:M10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Seasons_Episodes/output/logistic_reg_results.xlsx
+++ b/Data/Seasons_Episodes/output/logistic_reg_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquelineskunda/Documents/GitHub/696/Milestone2/Data/Seasons_Episodes/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC93B2-8147-734F-A62F-CB7ABB557DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4963C606-B0AB-3449-8AA6-357C6B3BC250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{6405171C-70B8-4540-B98E-64EBC0836A3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t xml:space="preserve">All Characters with featues </t>
   </si>
@@ -95,12 +95,6 @@
     <t>N Jobs</t>
   </si>
   <si>
-    <t>Class Weight</t>
-  </si>
-  <si>
-    <t>balanced</t>
-  </si>
-  <si>
     <t>Precison</t>
   </si>
   <si>
@@ -116,7 +110,10 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Grid Search done on C': [0.01,0.1,0.5,1.0,5,10], 'penalty':['l1','l2], 'solver':['liblinear','lbfgs','saga'], with score = accuracy and njobs = 50 and max iter = 250 and cv = 2 or cv = 5 depending on character occurences dataset fed to model </t>
+    <t>Grid Search done on C': [0.01,0.1,0.5,1.0,5,10], 'penalty':['l1','l2], 'solver':['liblinear','lbfgs','saga'], with score = accuracy and max iter = 250 and cv = 5</t>
+  </si>
+  <si>
+    <t>*** class weight made all of the runs worse off was very sensitive to it as well as whatever value cv was set to along with the max iter but due to space and speed we chose to keep all max iter between 250 to 1000 and the the cv = 2 or 5.</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,20 +799,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D58239E-72FE-BC46-A040-857978883CF3}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1"/>
-    <col min="8" max="13" width="11.83203125" customWidth="1"/>
+    <col min="7" max="12" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -837,26 +833,23 @@
       <c r="G1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -872,32 +865,29 @@
       <c r="E2" s="4">
         <v>500</v>
       </c>
-      <c r="F2" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8">
         <v>0.45100000000000001</v>
       </c>
+      <c r="H2" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="I2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="8">
+        <v>23</v>
+      </c>
+      <c r="K2" s="8">
         <v>0.45100000000000001</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="10">
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -916,23 +906,20 @@
       <c r="F3" s="4">
         <v>-1</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="8">
         <v>0.71099999999999997</v>
       </c>
+      <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="8">
+      <c r="K3" s="8">
         <v>0.71099999999999997</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="10">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -951,23 +938,20 @@
       <c r="F4" s="4">
         <v>-1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="10">
+      <c r="L4" s="10">
         <v>0.70040000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -986,23 +970,20 @@
       <c r="F5" s="4">
         <v>-1</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="8">
         <v>0.76600000000000001</v>
       </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="8">
+      <c r="K5" s="8">
         <v>0.76600000000000001</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="10">
         <v>0.70040000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1021,23 +1002,20 @@
       <c r="F6" s="4">
         <v>-1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="8">
         <v>0.59699999999999998</v>
       </c>
+      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="8">
+      <c r="K6" s="8">
         <v>0.59699999999999998</v>
       </c>
-      <c r="M6" s="10">
+      <c r="L6" s="10">
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1056,23 +1034,20 @@
       <c r="F7" s="4">
         <v>-1</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="8">
         <v>0.93200000000000005</v>
       </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="8">
+      <c r="K7" s="8">
         <v>0.93200000000000005</v>
       </c>
-      <c r="M7" s="10">
+      <c r="L7" s="10">
         <v>0.754</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1091,25 +1066,22 @@
       <c r="F8" s="4">
         <v>-1</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="7">
         <v>0.92</v>
       </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="7">
+      <c r="K8" s="7">
         <v>0.92</v>
       </c>
-      <c r="M8" s="11">
+      <c r="L8" s="11">
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1121,10 +1093,9 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -1136,12 +1107,16 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:M10"/>
+    <mergeCell ref="A9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
